--- a/biology/Médecine/Espace_rétropharyngien/Espace_rétropharyngien.xlsx
+++ b/biology/Médecine/Espace_rétropharyngien/Espace_rétropharyngien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Espace_r%C3%A9tropharyngien</t>
+          <t>Espace_rétropharyngien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espace rétropharyngien est un espace anatomique médian situé entre la paroi postérieure du pharynx et la colonne vertébrale recouverte des muscles prévertébraux et de la lame prévertébrale du fascia cervical.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Espace_r%C3%A9tropharyngien</t>
+          <t>Espace_rétropharyngien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espace rétropharyngien est limité en haut par la partie basilaire de l'os occipital et se prolonge à sa base par le médiastin à partir de la fourchette sternale.
 Latéralement, il est limité par la lame sagittale qui le sépare de l'espace latéro-pharyngien et de la gaine carotidienne.
-Il contient les ganglions lymphatiques rétro-pharyngiens[1].
+Il contient les ganglions lymphatiques rétro-pharyngiens.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Espace_r%C3%A9tropharyngien</t>
+          <t>Espace_rétropharyngien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un raphé médian présent dans cet espace peut y favoriser des infections : les abcès rétropharyngiens[2]. En particulier, des infections dentaires peuvent descendre par cet espace jusqu'au médiastin postérieur, puis sans traitement, affecter les espaces adjacents.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un raphé médian présent dans cet espace peut y favoriser des infections : les abcès rétropharyngiens. En particulier, des infections dentaires peuvent descendre par cet espace jusqu'au médiastin postérieur, puis sans traitement, affecter les espaces adjacents.
 </t>
         </is>
       </c>
